--- a/xlsx/乱世佳人 (电影)_intext.xlsx
+++ b/xlsx/乱世佳人 (电影)_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
   <si>
     <t>乱世佳人 (电影)</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%82%E4%B8%96%E4%BD%B3%E4%BA%BA_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>亂世佳人 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_乱世佳人 (电影)</t>
+    <t>乱世佳人 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_乱世佳人 (电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E6%89%98%C2%B7%E5%BC%97%E8%8E%B1%E6%98%8E</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E6%96%AF%C2%B7%E5%8F%B2%E5%9D%A6%E7%B4%8D</t>
   </si>
   <si>
-    <t>馬克斯·史坦納</t>
+    <t>马克斯·史坦纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%AB%98%E6%A2%85%E5%85%AC%E5%8F%B8</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%98</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E6%BC%A2</t>
   </si>
   <si>
-    <t>賓漢</t>
+    <t>宾汉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1%E5%8D%8F%E4%BC%9A</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E6%9C%80%E9%AB%98%E9%9B%BB%E5%BD%B1%E7%A5%A8%E6%88%BF</t>
   </si>
   <si>
-    <t>全球最高電影票房</t>
+    <t>全球最高电影票房</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%93%8A%C2%B7%E5%85%8B%E5%8B%9E%E9%A6%A5</t>
   </si>
   <si>
-    <t>瓊·克勞馥</t>
+    <t>琼·克劳馥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%8F%8A%C2%B7%E6%B5%B7%E8%8F%AF</t>
   </si>
   <si>
-    <t>蘇珊·海華</t>
+    <t>苏珊·海华</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E7%90%B3%C2%B7%E9%82%93%E6%81%A9</t>
@@ -305,19 +305,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E9%BA%97%E6%B3%B0%C2%B7%E6%A5%8A</t>
   </si>
   <si>
-    <t>洛麗泰·楊</t>
+    <t>洛丽泰·杨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8D%C2%B7%E4%BA%9E%E7%91%9F</t>
   </si>
   <si>
-    <t>珍·亞瑟</t>
+    <t>珍·亚瑟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E8%97%9D%E4%B8%83%E5%BD%A9</t>
   </si>
   <si>
-    <t>特藝七彩</t>
+    <t>特艺七彩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E4%BC%A6%E6%B5%A9%E5%8A%AB</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E9%87%8E%E4%BB%99%E8%B9%A4_(1939%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>綠野仙蹤 (1939年電影)</t>
+    <t>绿野仙踪 (1939年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%85%8B%E5%A4%9A%C2%B7%E5%BC%97%E8%8E%B1%E6%98%8E</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
-    <t>英屬香港</t>
+    <t>英属香港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -515,13 +515,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E9%BA%97%E8%A5%BF%E4%BA%9E%C2%B7%E9%9B%B7%E7%89%B9</t>
   </si>
   <si>
-    <t>艾麗西亞·雷特</t>
+    <t>艾丽西亚·雷特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%80%C2%B7%E8%BE%BE%E7%BB%B4%E5%B0%94</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%96%AF%E5%8D%A1%E6%9C%80%E4%BD%B3%E6%94%9D%E5%BD%B1%E7%8D%8E</t>
   </si>
   <si>
-    <t>奧斯卡最佳攝影獎</t>
+    <t>奥斯卡最佳摄影奖</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ernest_Haller</t>
@@ -635,7 +632,7 @@
     <t>https://zh.wikiquote.org/wiki/en:Gone_with_the_Wind_(film)</t>
   </si>
   <si>
-    <t>亂世佳人</t>
+    <t>乱世佳人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91%E7%94%B5%E5%BD%B1%E6%95%B0%E6%8D%AE%E5%BA%93</t>
@@ -659,7 +656,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%88%9B%E7%95%AA%E8%8C%84</t>
   </si>
   <si>
-    <t>爛番茄</t>
+    <t>烂番茄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Box_Office_Mojo</t>
@@ -677,7 +674,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%9C%BC%E9%9B%BB%E5%BD%B1%E7%B6%B2</t>
   </si>
   <si>
-    <t>開眼電影網</t>
+    <t>开眼电影网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%86%E7%93%A3</t>
@@ -695,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -749,7 +746,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B7%9A%E7%84%A1%E6%88%B0%E4%BA%8B_(1930%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>西線無戰事 (1930年電影)</t>
+    <t>西线无战事 (1930年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%AE%E5%BF%97%E5%8D%83%E7%A7%8B</t>
@@ -773,19 +770,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%A4%9C%E9%A2%A8%E6%B5%81_(1934%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>一夜風流 (1934年電影)</t>
+    <t>一夜风流 (1934年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%9B%E8%89%A6%E5%96%8B%E8%A1%80%E8%A8%98_(1935%E5%B9%B4%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>叛艦喋血記 (1935年電影)</t>
+    <t>叛舰喋血记 (1935年电影)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E8%88%9E%E5%A4%A7%E7%8E%8B%E9%BD%8A%E6%A0%BC%E9%A3%9B</t>
   </si>
   <si>
-    <t>歌舞大王齊格飛</t>
+    <t>歌舞大王齐格飞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A6%E6%8B%89%E4%BC%A0</t>
@@ -797,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E7%94%9F%E8%8B%A5%E5%A4%A2</t>
   </si>
   <si>
-    <t>浮生若夢</t>
+    <t>浮生若梦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9D%B4%E8%9D%B6%E6%A2%A6_(%E7%94%B5%E5%BD%B1)</t>
@@ -3561,7 +3558,7 @@
         <v>165</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>36</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3587,10 +3584,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3616,10 +3613,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3645,10 +3642,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>9</v>
@@ -3703,10 +3700,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3732,10 +3729,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -3761,10 +3758,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3790,10 +3787,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3819,10 +3816,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>180</v>
+      </c>
+      <c r="F92" t="s">
         <v>181</v>
-      </c>
-      <c r="F92" t="s">
-        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3848,10 +3845,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>182</v>
+      </c>
+      <c r="F93" t="s">
         <v>183</v>
-      </c>
-      <c r="F93" t="s">
-        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3877,10 +3874,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>184</v>
+      </c>
+      <c r="F94" t="s">
         <v>185</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3906,10 +3903,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>186</v>
+      </c>
+      <c r="F95" t="s">
         <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3935,10 +3932,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>188</v>
+      </c>
+      <c r="F96" t="s">
         <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3964,10 +3961,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>190</v>
+      </c>
+      <c r="F97" t="s">
         <v>191</v>
-      </c>
-      <c r="F97" t="s">
-        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3993,10 +3990,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>192</v>
+      </c>
+      <c r="F98" t="s">
         <v>193</v>
-      </c>
-      <c r="F98" t="s">
-        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4022,10 +4019,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>194</v>
+      </c>
+      <c r="F99" t="s">
         <v>195</v>
-      </c>
-      <c r="F99" t="s">
-        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4051,10 +4048,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>196</v>
+      </c>
+      <c r="F100" t="s">
         <v>197</v>
-      </c>
-      <c r="F100" t="s">
-        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4080,10 +4077,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F101" t="s">
         <v>199</v>
-      </c>
-      <c r="F101" t="s">
-        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4109,10 +4106,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>200</v>
+      </c>
+      <c r="F102" t="s">
         <v>201</v>
-      </c>
-      <c r="F102" t="s">
-        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4138,10 +4135,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -4167,10 +4164,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>8</v>
@@ -4196,10 +4193,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4225,10 +4222,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4254,10 +4251,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4283,10 +4280,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4312,10 +4309,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4341,10 +4338,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4370,10 +4367,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4399,10 +4396,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4428,10 +4425,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4457,10 +4454,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>3</v>
@@ -4486,10 +4483,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4515,10 +4512,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4544,10 +4541,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4573,10 +4570,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4602,10 +4599,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4631,10 +4628,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4660,10 +4657,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4689,10 +4686,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4718,10 +4715,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4747,10 +4744,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4776,10 +4773,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4805,10 +4802,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4834,10 +4831,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -4863,10 +4860,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4892,10 +4889,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -4921,10 +4918,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4950,10 +4947,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -4979,10 +4976,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5008,10 +5005,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>4</v>
@@ -5037,10 +5034,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
